--- a/data/trans_orig/Q5404-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5404-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4526</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>994</v>
+        <v>1006</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12582</v>
+        <v>11662</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01546759264078587</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003396828123502406</v>
+        <v>0.003438752087126289</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04300219245686211</v>
+        <v>0.03985997855039844</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -765,19 +765,19 @@
         <v>6447</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2711</v>
+        <v>2792</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12226</v>
+        <v>12936</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01879852059617437</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007905433846439465</v>
+        <v>0.008142668406212503</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03565212132870565</v>
+        <v>0.03772088739113948</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -786,19 +786,19 @@
         <v>10972</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5557</v>
+        <v>6182</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18215</v>
+        <v>19651</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01726500867458386</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008743920003550985</v>
+        <v>0.009727019967773927</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02866121372393398</v>
+        <v>0.03092067849965256</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>6116</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2565</v>
+        <v>2541</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12325</v>
+        <v>11995</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02090511347560189</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008766288508210903</v>
+        <v>0.008683233014346809</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04212492549851851</v>
+        <v>0.04099756349339639</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -836,19 +836,19 @@
         <v>9534</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4681</v>
+        <v>4775</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16866</v>
+        <v>16778</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02779998209588649</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0136502456280948</v>
+        <v>0.01392279939547251</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0491803821064948</v>
+        <v>0.0489244083437323</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -857,19 +857,19 @@
         <v>15650</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10045</v>
+        <v>9215</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24020</v>
+        <v>24743</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02462568251072072</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01580587072955573</v>
+        <v>0.01450046600491727</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03779544481572845</v>
+        <v>0.03893378938507905</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>281941</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>274081</v>
+        <v>274036</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>287292</v>
+        <v>287203</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9636272938836122</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9367631039795014</v>
+        <v>0.9366099259341775</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9819148340272875</v>
+        <v>0.9816117365888687</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>354</v>
@@ -907,19 +907,19 @@
         <v>326954</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>318434</v>
+        <v>318302</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>333475</v>
+        <v>333519</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9534014973079391</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9285562309192036</v>
+        <v>0.9281740076266548</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9724160118807377</v>
+        <v>0.9725449544193607</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>646</v>
@@ -928,19 +928,19 @@
         <v>608895</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>599610</v>
+        <v>597934</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>616896</v>
+        <v>617306</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9581093088146955</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9434993511644779</v>
+        <v>0.9408630738932786</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.970699635241734</v>
+        <v>0.9713446894863415</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>6013</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2523</v>
+        <v>2658</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11613</v>
+        <v>11867</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02865089360473329</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01202333459103879</v>
+        <v>0.01266588716481941</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05532977514433396</v>
+        <v>0.05654319927527555</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -1053,19 +1053,19 @@
         <v>22341</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13782</v>
+        <v>14044</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>32822</v>
+        <v>33282</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06690879485163238</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04127519445735946</v>
+        <v>0.04205994842770733</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09829618338117789</v>
+        <v>0.09967530813851196</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>27</v>
@@ -1074,19 +1074,19 @@
         <v>28355</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>18114</v>
+        <v>19756</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>40658</v>
+        <v>41112</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05214267448506691</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03331083439153675</v>
+        <v>0.0363294170932621</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07476752898939007</v>
+        <v>0.07560170218512298</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>14607</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8401</v>
+        <v>8374</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22757</v>
+        <v>23180</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06959624765502681</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04002934142659476</v>
+        <v>0.03989901028813667</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1084272716568136</v>
+        <v>0.1104404787417622</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -1124,19 +1124,19 @@
         <v>24174</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15623</v>
+        <v>15615</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>35612</v>
+        <v>36256</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07239837539029832</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04678787690381408</v>
+        <v>0.04676555554412527</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1066529629324092</v>
+        <v>0.1085813393314877</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>37</v>
@@ -1145,19 +1145,19 @@
         <v>38781</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>28042</v>
+        <v>26883</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>53040</v>
+        <v>51848</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07131685878659115</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05156830043481055</v>
+        <v>0.04943696327351593</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09753680089809105</v>
+        <v>0.09534580158102975</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>189263</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>178490</v>
+        <v>179644</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>196204</v>
+        <v>196465</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9017528587402399</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8504258997475483</v>
+        <v>0.8559242472430187</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9348238521498964</v>
+        <v>0.9360696857385988</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>249</v>
@@ -1195,19 +1195,19 @@
         <v>287392</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>272461</v>
+        <v>271017</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>299353</v>
+        <v>299708</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8606928297580693</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8159763497560104</v>
+        <v>0.811651118643001</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8965122663467819</v>
+        <v>0.8975771623136735</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>446</v>
@@ -1216,19 +1216,19 @@
         <v>476655</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>460497</v>
+        <v>460091</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>492117</v>
+        <v>491205</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.876540466728342</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8468269212416364</v>
+        <v>0.8460805018630381</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9049737141242394</v>
+        <v>0.9032973210720759</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>10539</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5209</v>
+        <v>5365</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18563</v>
+        <v>18854</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02097433554501325</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01036780956313693</v>
+        <v>0.0106769937855161</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03694377233716712</v>
+        <v>0.03752370401794638</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>27</v>
@@ -1341,19 +1341,19 @@
         <v>28788</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>19061</v>
+        <v>19584</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>40676</v>
+        <v>40052</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0425328731797484</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02816151057777279</v>
+        <v>0.02893442832714287</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06009684955103264</v>
+        <v>0.05917425656642269</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>38</v>
@@ -1362,19 +1362,19 @@
         <v>39327</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>27634</v>
+        <v>28488</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>52417</v>
+        <v>52952</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03334745914221331</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02343205833371135</v>
+        <v>0.02415647125718613</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04444751716061437</v>
+        <v>0.04490056394154767</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>20724</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13193</v>
+        <v>14372</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29775</v>
+        <v>31579</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04124368864540114</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02625740491629797</v>
+        <v>0.02860351954795546</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05925715579993482</v>
+        <v>0.06284820924441316</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -1412,19 +1412,19 @@
         <v>33708</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22231</v>
+        <v>23392</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46250</v>
+        <v>46644</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04980181034342319</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03284483715013303</v>
+        <v>0.03456080512261933</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06833179557863503</v>
+        <v>0.06891471526137513</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>54</v>
@@ -1433,19 +1433,19 @@
         <v>54432</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>43103</v>
+        <v>41076</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>72349</v>
+        <v>70642</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04615546417134846</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03654966119998008</v>
+        <v>0.03483044918709861</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06134904417141986</v>
+        <v>0.05990104158532891</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>471204</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>459917</v>
+        <v>458962</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>480530</v>
+        <v>479663</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9377819758095856</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.915318971304072</v>
+        <v>0.9134183903726087</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9563438082618031</v>
+        <v>0.9546171213569796</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>603</v>
@@ -1483,19 +1483,19 @@
         <v>614346</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>598490</v>
+        <v>598847</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>629860</v>
+        <v>628560</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9076653164768285</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8842392416862065</v>
+        <v>0.8847663762577932</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9305866179910566</v>
+        <v>0.9286653204450136</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1092</v>
@@ -1504,19 +1504,19 @@
         <v>1085550</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1064641</v>
+        <v>1066793</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1102072</v>
+        <v>1104239</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9204970766864382</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9027678560406265</v>
+        <v>0.9045923187532333</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9345074908199521</v>
+        <v>0.936344666133714</v>
       </c>
     </row>
     <row r="15">
@@ -1846,19 +1846,19 @@
         <v>6010</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2028</v>
+        <v>1984</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12605</v>
+        <v>12086</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01940060114243271</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00654509503306138</v>
+        <v>0.006404517517018224</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04068800416994788</v>
+        <v>0.03901275230223176</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -1867,19 +1867,19 @@
         <v>5702</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1971</v>
+        <v>1940</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12810</v>
+        <v>12745</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01610705479041771</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005567564572896339</v>
+        <v>0.005478984620547234</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03618555571405298</v>
+        <v>0.03600295730428496</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -1888,19 +1888,19 @@
         <v>11712</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5870</v>
+        <v>6154</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19981</v>
+        <v>21868</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01764414809878276</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008843442951763245</v>
+        <v>0.009270421128126826</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03010159023735981</v>
+        <v>0.03294508932487764</v>
       </c>
     </row>
     <row r="5">
@@ -1917,19 +1917,19 @@
         <v>7525</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3065</v>
+        <v>3089</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17034</v>
+        <v>17427</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02429216877050147</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009895293663268917</v>
+        <v>0.009970427754926792</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05498603988250807</v>
+        <v>0.05625595490480114</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -1938,19 +1938,19 @@
         <v>17734</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10746</v>
+        <v>10964</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26538</v>
+        <v>27273</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05009527982454371</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03035647552444426</v>
+        <v>0.03097226221392196</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07496790999228857</v>
+        <v>0.07704252682695556</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -1959,19 +1959,19 @@
         <v>25259</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15713</v>
+        <v>15890</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37441</v>
+        <v>36610</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03805300529821031</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02367162230414789</v>
+        <v>0.02393882666458873</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05640483346060859</v>
+        <v>0.05515306280105219</v>
       </c>
     </row>
     <row r="6">
@@ -1988,19 +1988,19 @@
         <v>296251</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>285786</v>
+        <v>287277</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>302557</v>
+        <v>302676</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9563072300870659</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9225286128659957</v>
+        <v>0.927339935850618</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9766633848500474</v>
+        <v>0.9770482368906082</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>321</v>
@@ -2009,19 +2009,19 @@
         <v>330561</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>319659</v>
+        <v>318989</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>339276</v>
+        <v>338704</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9337976653850386</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9030020216747755</v>
+        <v>0.9011090287781042</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.958418543191228</v>
+        <v>0.956803050735462</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>591</v>
@@ -2030,19 +2030,19 @@
         <v>626811</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>613337</v>
+        <v>612158</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>639448</v>
+        <v>636999</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9443028466030069</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9240032077745796</v>
+        <v>0.9222272271216617</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.963340732239047</v>
+        <v>0.9596510028658283</v>
       </c>
     </row>
     <row r="7">
@@ -2134,19 +2134,19 @@
         <v>17025</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9776</v>
+        <v>9624</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28777</v>
+        <v>27114</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06814198589192925</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03912789486310416</v>
+        <v>0.03852030141581834</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1151771359542525</v>
+        <v>0.1085225411252028</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>36</v>
@@ -2155,19 +2155,19 @@
         <v>40265</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28434</v>
+        <v>28828</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>53829</v>
+        <v>55495</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1035148079410908</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07310025479583376</v>
+        <v>0.07411296161663837</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1383862548385898</v>
+        <v>0.1426683833140969</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>51</v>
@@ -2176,19 +2176,19 @@
         <v>57290</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>43613</v>
+        <v>42763</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>75592</v>
+        <v>74412</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0896802481397115</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06827060850992672</v>
+        <v>0.06693908673481426</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1183284596260036</v>
+        <v>0.1164809935057543</v>
       </c>
     </row>
     <row r="9">
@@ -2205,19 +2205,19 @@
         <v>22918</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14029</v>
+        <v>13833</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>34427</v>
+        <v>34119</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09172585413266948</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05615082201662792</v>
+        <v>0.05536404774932834</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1377889593205525</v>
+        <v>0.1365591230311212</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>52</v>
@@ -2226,19 +2226,19 @@
         <v>58000</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>44284</v>
+        <v>44759</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>73420</v>
+        <v>75462</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1491080881524617</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1138480202127264</v>
+        <v>0.1150682831116434</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1887516892756093</v>
+        <v>0.1939999402247339</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>71</v>
@@ -2247,19 +2247,19 @@
         <v>80918</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>62547</v>
+        <v>64794</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>99735</v>
+        <v>100067</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1266654923375096</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0979092718123241</v>
+        <v>0.1014259612629424</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1561218582698895</v>
+        <v>0.1566410073935019</v>
       </c>
     </row>
     <row r="10">
@@ -2276,19 +2276,19 @@
         <v>209908</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>195510</v>
+        <v>196946</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>222155</v>
+        <v>221444</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8401321599754012</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7825056921947732</v>
+        <v>0.7882557879583892</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8891498817919578</v>
+        <v>0.8863043309001588</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>262</v>
@@ -2297,19 +2297,19 @@
         <v>290714</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>272154</v>
+        <v>270174</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>308451</v>
+        <v>306831</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7473771039064474</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6996629414702692</v>
+        <v>0.6945730847723687</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7929759800022165</v>
+        <v>0.7888114422396193</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>450</v>
@@ -2318,19 +2318,19 @@
         <v>500622</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>476218</v>
+        <v>476808</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>522237</v>
+        <v>523612</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7836542595227789</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7454536555805168</v>
+        <v>0.7463776600308845</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8174896875675765</v>
+        <v>0.8196414303728964</v>
       </c>
     </row>
     <row r="11">
@@ -2422,19 +2422,19 @@
         <v>23035</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14769</v>
+        <v>15312</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>34512</v>
+        <v>36255</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04116127063713625</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02638978357467246</v>
+        <v>0.02736078393329342</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0616679999766488</v>
+        <v>0.06478248244304262</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>41</v>
@@ -2443,19 +2443,19 @@
         <v>45967</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>33075</v>
+        <v>32880</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>61528</v>
+        <v>60027</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06186872954461366</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04451743422437261</v>
+        <v>0.04425434627080736</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08281286962662227</v>
+        <v>0.08079264293754047</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>62</v>
@@ -2464,19 +2464,19 @@
         <v>69002</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>52783</v>
+        <v>54289</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>87084</v>
+        <v>88554</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0529722502980939</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04052090298581836</v>
+        <v>0.04167670865795095</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06685306933464645</v>
+        <v>0.06798180263996782</v>
       </c>
     </row>
     <row r="13">
@@ -2493,19 +2493,19 @@
         <v>30443</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20592</v>
+        <v>18926</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46028</v>
+        <v>43883</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05439804589150637</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03679510474407736</v>
+        <v>0.03381910162885333</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08224642058615753</v>
+        <v>0.07841265477823431</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -2514,19 +2514,19 @@
         <v>75733</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>58801</v>
+        <v>58925</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>93069</v>
+        <v>94214</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1019326943315981</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07914330513159989</v>
+        <v>0.0793093092586854</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1252648010322518</v>
+        <v>0.1268064803232123</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>95</v>
@@ -2535,19 +2535,19 @@
         <v>106177</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>83866</v>
+        <v>87263</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>129235</v>
+        <v>126626</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08151053557096019</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06438284578466229</v>
+        <v>0.06699081536740274</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09921202771274758</v>
+        <v>0.09720919504644639</v>
       </c>
     </row>
     <row r="14">
@@ -2564,19 +2564,19 @@
         <v>506158</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>489468</v>
+        <v>488971</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>519842</v>
+        <v>520483</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9044406834713574</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8746174569150441</v>
+        <v>0.8737279878496313</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9288906047149047</v>
+        <v>0.9300363869034982</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>583</v>
@@ -2585,19 +2585,19 @@
         <v>621275</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>599300</v>
+        <v>599802</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>642599</v>
+        <v>642328</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8361985761237882</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8066214381136053</v>
+        <v>0.8072981419623485</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8648997013920214</v>
+        <v>0.8645350224356543</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1041</v>
@@ -2606,19 +2606,19 @@
         <v>1127433</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1099754</v>
+        <v>1101853</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1155855</v>
+        <v>1151729</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.865517214130946</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8442681628891058</v>
+        <v>0.8458796388421457</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8873367334712778</v>
+        <v>0.8841689812632321</v>
       </c>
     </row>
     <row r="15">
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6666</v>
+        <v>6759</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005760668495048684</v>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01993975134525627</v>
+        <v>0.02021548985777366</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7537</v>
+        <v>7864</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005153027961126906</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01995248402257261</v>
+        <v>0.02081690279272583</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -2990,19 +2990,19 @@
         <v>3873</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9743</v>
+        <v>8877</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005438317584737477</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00137915511746815</v>
+        <v>0.001373158604693193</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01368171578606844</v>
+        <v>0.01246668671219289</v>
       </c>
     </row>
     <row r="5">
@@ -3019,19 +3019,19 @@
         <v>4968</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1888</v>
+        <v>1936</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10132</v>
+        <v>11231</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01485955749911443</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005648001843177613</v>
+        <v>0.00578929534446668</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03030491134059186</v>
+        <v>0.03359199389174257</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -3040,19 +3040,19 @@
         <v>10988</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5869</v>
+        <v>5880</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19276</v>
+        <v>18734</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02908663290654221</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0155353941939757</v>
+        <v>0.01556441351834519</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05102713732842395</v>
+        <v>0.04959088568785968</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -3061,19 +3061,19 @@
         <v>15956</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8989</v>
+        <v>9840</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25376</v>
+        <v>25461</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02240696497545785</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01262287193875908</v>
+        <v>0.01381905684250371</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03563606438948184</v>
+        <v>0.0357558318566347</v>
       </c>
     </row>
     <row r="6">
@@ -3090,19 +3090,19 @@
         <v>327436</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>320575</v>
+        <v>320362</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>331189</v>
+        <v>331253</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9793797740058369</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9588572503219258</v>
+        <v>0.9582203822598699</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9906049903866712</v>
+        <v>0.9907971285857895</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>341</v>
@@ -3111,19 +3111,19 @@
         <v>364828</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>356279</v>
+        <v>356412</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>370749</v>
+        <v>370797</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9657603391323308</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9431306436287851</v>
+        <v>0.9434819870718432</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9814366054814703</v>
+        <v>0.9815634916791778</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>659</v>
@@ -3132,19 +3132,19 @@
         <v>692264</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>681633</v>
+        <v>682123</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>699632</v>
+        <v>699284</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9721547174398046</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9572263365898873</v>
+        <v>0.957913519713722</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9825028060695818</v>
+        <v>0.9820142519619391</v>
       </c>
     </row>
     <row r="7">
@@ -3236,19 +3236,19 @@
         <v>8417</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4180</v>
+        <v>4188</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14663</v>
+        <v>15226</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03275131048623079</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01626482369192898</v>
+        <v>0.01629481204982638</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05705419132793142</v>
+        <v>0.05924504299091841</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -3257,19 +3257,19 @@
         <v>26754</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16609</v>
+        <v>16970</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>41761</v>
+        <v>40877</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06685725250511734</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04150467449751171</v>
+        <v>0.04240810666924835</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1043581075712928</v>
+        <v>0.102149731941613</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>29</v>
@@ -3278,19 +3278,19 @@
         <v>35171</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>24343</v>
+        <v>23435</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>49285</v>
+        <v>49979</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05351945721612381</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0370429306864954</v>
+        <v>0.0356607557615825</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07499596871894079</v>
+        <v>0.07605161979544257</v>
       </c>
     </row>
     <row r="9">
@@ -3307,19 +3307,19 @@
         <v>15984</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9923</v>
+        <v>9850</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23997</v>
+        <v>24044</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06219464985709551</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03861046857874404</v>
+        <v>0.03832899395769269</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09337421934147114</v>
+        <v>0.09355598831413166</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>29</v>
@@ -3328,19 +3328,19 @@
         <v>37622</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>27242</v>
+        <v>25675</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>54115</v>
+        <v>51828</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09401647620587203</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06807596158923147</v>
+        <v>0.06416012270488326</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.135229293428351</v>
+        <v>0.1295150712040848</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>48</v>
@@ -3349,19 +3349,19 @@
         <v>53606</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>40972</v>
+        <v>40424</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>70120</v>
+        <v>71477</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08157192899685937</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06234647548691927</v>
+        <v>0.06151304874884354</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.106701051421098</v>
+        <v>0.1087652796623687</v>
       </c>
     </row>
     <row r="10">
@@ -3378,19 +3378,19 @@
         <v>232597</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>223528</v>
+        <v>222451</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>240060</v>
+        <v>240219</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9050540396566737</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8697663440607838</v>
+        <v>0.8655730721046719</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9340909624840711</v>
+        <v>0.9347128270044104</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>253</v>
@@ -3399,19 +3399,19 @@
         <v>335792</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>315826</v>
+        <v>318041</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>350489</v>
+        <v>351817</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8391262712890106</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.789230897041108</v>
+        <v>0.7947666218908358</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8758520716558731</v>
+        <v>0.879171383249653</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>526</v>
@@ -3420,19 +3420,19 @@
         <v>568389</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>548911</v>
+        <v>547619</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>585098</v>
+        <v>584406</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8649086137870168</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8352680027289044</v>
+        <v>0.8333026259365237</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8903339654770037</v>
+        <v>0.8892809189135155</v>
       </c>
     </row>
     <row r="11">
@@ -3524,19 +3524,19 @@
         <v>10343</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5844</v>
+        <v>5197</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17167</v>
+        <v>17404</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01749111428859949</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00988215275980309</v>
+        <v>0.008788172878430414</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02903162397018215</v>
+        <v>0.0294325701623607</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>21</v>
@@ -3545,19 +3545,19 @@
         <v>28701</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18923</v>
+        <v>18566</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>43451</v>
+        <v>43157</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03689378359309833</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02432503773448905</v>
+        <v>0.02386531276041366</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05585410092911842</v>
+        <v>0.05547708727859246</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>33</v>
@@ -3566,19 +3566,19 @@
         <v>39044</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>27023</v>
+        <v>26693</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>54966</v>
+        <v>53192</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02851454955699161</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01973513049509634</v>
+        <v>0.01949430933560293</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04014264150016641</v>
+        <v>0.03884734101956832</v>
       </c>
     </row>
     <row r="13">
@@ -3595,19 +3595,19 @@
         <v>20952</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13035</v>
+        <v>13897</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29756</v>
+        <v>31637</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03543193718609717</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02204377908696857</v>
+        <v>0.02350179559726227</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0503211395768435</v>
+        <v>0.05350230398983605</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -3616,19 +3616,19 @@
         <v>48610</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>35489</v>
+        <v>35638</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65365</v>
+        <v>64932</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06248665218588577</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04561911129135367</v>
+        <v>0.04581097228453407</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08402356918664891</v>
+        <v>0.08346809143397006</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>64</v>
@@ -3637,19 +3637,19 @@
         <v>69562</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54159</v>
+        <v>55245</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>88793</v>
+        <v>89343</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05080280677236672</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03955338023796721</v>
+        <v>0.04034692258108839</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06484776049275262</v>
+        <v>0.06524893964847629</v>
       </c>
     </row>
     <row r="14">
@@ -3666,19 +3666,19 @@
         <v>560033</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>549389</v>
+        <v>548007</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>569236</v>
+        <v>568650</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9470769485253033</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9290758126488511</v>
+        <v>0.9267393479134529</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9626406254093858</v>
+        <v>0.9616484236384575</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>594</v>
@@ -3687,19 +3687,19 @@
         <v>700620</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>681936</v>
+        <v>679359</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>717072</v>
+        <v>717071</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9006195642210159</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8766023318897539</v>
+        <v>0.8732901295892477</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9217683021599623</v>
+        <v>0.9217672881474646</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1185</v>
@@ -3708,19 +3708,19 @@
         <v>1260653</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1238010</v>
+        <v>1236976</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1280886</v>
+        <v>1279168</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9206826436706417</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.904146258371019</v>
+        <v>0.9033907453438512</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9354590270904884</v>
+        <v>0.9342046679154595</v>
       </c>
     </row>
     <row r="15">
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3395</v>
+        <v>3121</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001498185223795919</v>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.008338954573659418</v>
+        <v>0.007667012130365052</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -4071,19 +4071,19 @@
         <v>3487</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1284</v>
+        <v>1238</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6952</v>
+        <v>7239</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007948439922604324</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002927572313246732</v>
+        <v>0.002821409867534209</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01584600727076903</v>
+        <v>0.01649880659137808</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -4092,19 +4092,19 @@
         <v>4097</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1769</v>
+        <v>1746</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8534</v>
+        <v>8106</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004844013650257844</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002091823891252459</v>
+        <v>0.00206385801547377</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01008934730420073</v>
+        <v>0.009583999188651115</v>
       </c>
     </row>
     <row r="5">
@@ -4121,19 +4121,19 @@
         <v>6748</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3353</v>
+        <v>3397</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12619</v>
+        <v>13264</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01657548004363277</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008235887926200634</v>
+        <v>0.008343879333221624</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03099926366421785</v>
+        <v>0.03258348085542235</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -4142,19 +4142,19 @@
         <v>12859</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7973</v>
+        <v>8302</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18357</v>
+        <v>19352</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02930979554160076</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01817258874609581</v>
+        <v>0.01892328856952583</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04184060575247009</v>
+        <v>0.04410977968573785</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>33</v>
@@ -4163,19 +4163,19 @@
         <v>19607</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13739</v>
+        <v>13304</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27616</v>
+        <v>27101</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02318093002570975</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0162437176223083</v>
+        <v>0.01572888414104718</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03265031174082707</v>
+        <v>0.03204159232968369</v>
       </c>
     </row>
     <row r="6">
@@ -4192,19 +4192,19 @@
         <v>399723</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>394126</v>
+        <v>393171</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>403301</v>
+        <v>403282</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9819263347325712</v>
+        <v>0.9819263347325713</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9681774219737882</v>
+        <v>0.9658334745780381</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9907160611355745</v>
+        <v>0.9906703046969251</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>797</v>
@@ -4213,19 +4213,19 @@
         <v>422388</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>416154</v>
+        <v>415671</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>427910</v>
+        <v>427798</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.9627417645357947</v>
+        <v>0.9627417645357949</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9485341697749321</v>
+        <v>0.9474320861230965</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9753294826722448</v>
+        <v>0.9750742546282672</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1356</v>
@@ -4234,19 +4234,19 @@
         <v>822110</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>813280</v>
+        <v>813594</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>828495</v>
+        <v>828948</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9719750563240322</v>
+        <v>0.9719750563240326</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9615357589373439</v>
+        <v>0.961906107431026</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.979524429945182</v>
+        <v>0.9800590283345129</v>
       </c>
     </row>
     <row r="7">
@@ -4338,19 +4338,19 @@
         <v>7867</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4236</v>
+        <v>4481</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12648</v>
+        <v>13333</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02543476813282062</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01369562011839463</v>
+        <v>0.01448559661677335</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04089229896915053</v>
+        <v>0.04310663968880819</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>66</v>
@@ -4359,19 +4359,19 @@
         <v>37497</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28564</v>
+        <v>29499</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>46913</v>
+        <v>47985</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08081849343213224</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06156547023722839</v>
+        <v>0.06358054061436361</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1011131679273816</v>
+        <v>0.103423800396202</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>80</v>
@@ -4380,19 +4380,19 @@
         <v>45364</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>35711</v>
+        <v>36361</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>57548</v>
+        <v>56699</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.05866488747221596</v>
+        <v>0.05866488747221597</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04618143282747013</v>
+        <v>0.04702217336711469</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07442087419220818</v>
+        <v>0.07332357700850389</v>
       </c>
     </row>
     <row r="9">
@@ -4409,19 +4409,19 @@
         <v>27494</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19913</v>
+        <v>20812</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>36390</v>
+        <v>37303</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.0888876373131828</v>
+        <v>0.08888763731318279</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06437738383393565</v>
+        <v>0.06728499071433837</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1176469932715527</v>
+        <v>0.1205989733731268</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>133</v>
@@ -4430,19 +4430,19 @@
         <v>69887</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>59491</v>
+        <v>59180</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>83001</v>
+        <v>83062</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1506306252470721</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1282242295218084</v>
+        <v>0.1275529492327424</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1788956839885867</v>
+        <v>0.1790278043625994</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>173</v>
@@ -4451,19 +4451,19 @@
         <v>97381</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>83655</v>
+        <v>84326</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>110921</v>
+        <v>112712</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1259333009323379</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1081823324195908</v>
+        <v>0.1090509796214286</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1434426903529076</v>
+        <v>0.1457596091477084</v>
       </c>
     </row>
     <row r="10">
@@ -4480,19 +4480,19 @@
         <v>273951</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>262457</v>
+        <v>263259</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>281806</v>
+        <v>281508</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8856775945539967</v>
+        <v>0.8856775945539965</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8485185058991038</v>
+        <v>0.8511110030662302</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9110743246939516</v>
+        <v>0.9101102177356171</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>681</v>
@@ -4501,19 +4501,19 @@
         <v>356579</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>343397</v>
+        <v>341977</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>369892</v>
+        <v>370567</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7685508813207957</v>
+        <v>0.7685508813207955</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7401381656509248</v>
+        <v>0.7370783270264269</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.797244199317396</v>
+        <v>0.7986983897278869</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1084</v>
@@ -4522,19 +4522,19 @@
         <v>630530</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>615574</v>
+        <v>612019</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>647135</v>
+        <v>645853</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8154018115954461</v>
+        <v>0.8154018115954462</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7960605067414348</v>
+        <v>0.7914640276044125</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8368761203129147</v>
+        <v>0.8352183674967188</v>
       </c>
     </row>
     <row r="11">
@@ -4626,19 +4626,19 @@
         <v>8477</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5068</v>
+        <v>4833</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13985</v>
+        <v>14223</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01183312678120107</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007074602784038115</v>
+        <v>0.006746157465518851</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01952148090821837</v>
+        <v>0.01985374566134993</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>72</v>
@@ -4647,19 +4647,19 @@
         <v>40984</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>32177</v>
+        <v>32468</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>53674</v>
+        <v>52008</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04540176185423266</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03564590980896092</v>
+        <v>0.03596750872516578</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05945922458095464</v>
+        <v>0.05761373358340707</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>87</v>
@@ -4668,19 +4668,19 @@
         <v>49461</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>39050</v>
+        <v>39959</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>61240</v>
+        <v>61720</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03054879435188798</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02411859088626009</v>
+        <v>0.02467988266453396</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03782355374424392</v>
+        <v>0.03811989982161183</v>
       </c>
     </row>
     <row r="13">
@@ -4697,19 +4697,19 @@
         <v>34242</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25449</v>
+        <v>25368</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44908</v>
+        <v>44735</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04779722636018503</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03552355394123184</v>
+        <v>0.0354109121044317</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06268608136610557</v>
+        <v>0.06244434322081316</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>156</v>
@@ -4718,19 +4718,19 @@
         <v>82746</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>70398</v>
+        <v>70187</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>95457</v>
+        <v>96800</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09166556273445943</v>
+        <v>0.09166556273445944</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07798652981646685</v>
+        <v>0.07775226553583345</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1057468461291602</v>
+        <v>0.1072344315257967</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>206</v>
@@ -4739,19 +4739,19 @@
         <v>116988</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>100923</v>
+        <v>101333</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>133441</v>
+        <v>133606</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07225533133447958</v>
+        <v>0.07225533133447956</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06233331626907861</v>
+        <v>0.06258658919025273</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08241756881263768</v>
+        <v>0.08251942424259345</v>
       </c>
     </row>
     <row r="14">
@@ -4768,19 +4768,19 @@
         <v>673672</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>662235</v>
+        <v>662550</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>684465</v>
+        <v>683923</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9403696468586138</v>
+        <v>0.940369646858614</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9244040815079172</v>
+        <v>0.9248438855732809</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9554343491915447</v>
+        <v>0.9546777993471079</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1478</v>
@@ -4789,19 +4789,19 @@
         <v>778968</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>763679</v>
+        <v>763695</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>793362</v>
+        <v>793730</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8629326754113079</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8459957560948943</v>
+        <v>0.8460134375631353</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8788783293163536</v>
+        <v>0.8792864122496978</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2440</v>
@@ -4810,19 +4810,19 @@
         <v>1452640</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1432540</v>
+        <v>1433281</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1471054</v>
+        <v>1470449</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8971958743136322</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8847814130530199</v>
+        <v>0.8852391957948463</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9085691361985704</v>
+        <v>0.9081954130605852</v>
       </c>
     </row>
     <row r="15">
